--- a/brig.xlsx
+++ b/brig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B4163C-AAAA-4EA2-998D-DB56D47CA288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F3A303-2EE2-400E-AD9A-1B35B133E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60291196-15A2-4B83-AAE8-B6DFB8CFF507}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>B1</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>OBJ6</t>
+  </si>
+  <si>
+    <t>Name_B</t>
   </si>
 </sst>
 </file>
@@ -426,12 +429,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
